--- a/base/ucs.sub.xlsx
+++ b/base/ucs.sub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliasgk\Documents\Python Projects\RelatorioCelesc\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B410B771-4C3A-4B8C-8D24-7062B4CBF0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA2E240-AEC1-4AE8-9FD3-27FDA4BE58D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="645" windowWidth="17310" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="136">
   <si>
     <t>UC</t>
   </si>
@@ -39,23 +39,407 @@
     <t>JOINVILLE</t>
   </si>
   <si>
+    <t>Cod de Reg</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>FLORIANOPOLIS</t>
+  </si>
+  <si>
+    <t>BLUMENAU</t>
+  </si>
+  <si>
+    <t>SAO FRANCISCO DO SUL</t>
+  </si>
+  <si>
+    <t>TUBARAO</t>
+  </si>
+  <si>
+    <t>MAFRA</t>
+  </si>
+  <si>
+    <t>NAVEGANTES</t>
+  </si>
+  <si>
+    <t>CHAPECO</t>
+  </si>
+  <si>
+    <t>TIJUCAS</t>
+  </si>
+  <si>
+    <t>GASPAR</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>ORLEANS</t>
+  </si>
+  <si>
+    <t>GAROPABA</t>
+  </si>
+  <si>
+    <t>PORTO BELO</t>
+  </si>
+  <si>
+    <t>ITAPEMA</t>
+  </si>
+  <si>
+    <t>BIGUACU</t>
+  </si>
+  <si>
+    <t>LAGUNA</t>
+  </si>
+  <si>
+    <t>RIO DO SUL</t>
+  </si>
+  <si>
+    <t>CONCORDIA</t>
+  </si>
+  <si>
+    <t>CAMPOS NOVOS</t>
+  </si>
+  <si>
+    <t>CRICIUMA</t>
+  </si>
+  <si>
+    <t>SAO MIGUEL DO OESTE</t>
+  </si>
+  <si>
+    <t>MARAVILHA</t>
+  </si>
+  <si>
+    <t>CANOINHAS</t>
+  </si>
+  <si>
+    <t>SAO BENTO DO SUL</t>
+  </si>
+  <si>
+    <t>SANTO AMARO DA IMPERATRIZ</t>
+  </si>
+  <si>
+    <t>PALHOCA</t>
+  </si>
+  <si>
+    <t>CURITIBANOS</t>
+  </si>
+  <si>
+    <t>ITAJAI</t>
+  </si>
+  <si>
+    <t>TIMBO</t>
+  </si>
+  <si>
+    <t>JOACABA</t>
+  </si>
+  <si>
+    <t>LAGES</t>
+  </si>
+  <si>
+    <t>INDAIAL</t>
+  </si>
+  <si>
+    <t>BALNEARIO GAIVOTA</t>
+  </si>
+  <si>
+    <t>CACADOR</t>
+  </si>
+  <si>
+    <t>IMBITUBA</t>
+  </si>
+  <si>
+    <t>PINHALZINHO</t>
+  </si>
+  <si>
+    <t>SAO JOSE</t>
+  </si>
+  <si>
+    <t>SAO LOURENCO DO OESTE</t>
+  </si>
+  <si>
+    <t>BALNEARIO PICARRAS</t>
+  </si>
+  <si>
+    <t>VIDEIRA</t>
+  </si>
+  <si>
+    <t>Biguaçu</t>
+  </si>
+  <si>
+    <t>São Miguel do Oeste</t>
+  </si>
+  <si>
+    <t>São Bento do Sul</t>
+  </si>
+  <si>
+    <t>Balneário Camboriu</t>
+  </si>
+  <si>
+    <t>Chapecó</t>
+  </si>
+  <si>
+    <t>Sala Estreito</t>
+  </si>
+  <si>
+    <t>Joinville</t>
+  </si>
+  <si>
+    <t>Concórdia</t>
+  </si>
+  <si>
+    <t>Sede Balneária</t>
+  </si>
+  <si>
+    <t>Caçador</t>
+  </si>
+  <si>
+    <t>Sede</t>
+  </si>
+  <si>
+    <t>Jaraguá do Sul</t>
+  </si>
+  <si>
+    <t>Fraiburgo</t>
+  </si>
+  <si>
+    <t>Joaçaba</t>
+  </si>
+  <si>
+    <t>São José</t>
+  </si>
+  <si>
+    <t>São Francisco do Sul</t>
+  </si>
+  <si>
+    <t>Timbó</t>
+  </si>
+  <si>
+    <t>Sombrio</t>
+  </si>
+  <si>
+    <t>Palhoça</t>
+  </si>
+  <si>
+    <t>Costa Esmeralda</t>
+  </si>
+  <si>
+    <t>Tubarão</t>
+  </si>
+  <si>
+    <t>Araranguá</t>
+  </si>
+  <si>
+    <t>Criciúma</t>
+  </si>
+  <si>
+    <t>Itajaí</t>
+  </si>
+  <si>
+    <t>Camboriu</t>
+  </si>
+  <si>
+    <t>São Lourenço do Oeste</t>
+  </si>
+  <si>
+    <t>Balneário Piçarras</t>
+  </si>
+  <si>
+    <t>Sala Sul da Ilha</t>
+  </si>
+  <si>
+    <t>0024611442</t>
+  </si>
+  <si>
+    <t>0012312121</t>
+  </si>
+  <si>
+    <t>0019845940</t>
+  </si>
+  <si>
+    <t>0008756970</t>
+  </si>
+  <si>
+    <t>0029411492</t>
+  </si>
+  <si>
+    <t>0020041242</t>
+  </si>
+  <si>
+    <t>0024811735</t>
+  </si>
+  <si>
+    <t>0020120509</t>
+  </si>
+  <si>
+    <t>0044597020</t>
+  </si>
+  <si>
+    <t>0024931846</t>
+  </si>
+  <si>
+    <t>0044794837</t>
+  </si>
+  <si>
+    <t>0057109289</t>
+  </si>
+  <si>
+    <t>0030056337</t>
+  </si>
+  <si>
+    <t>0042249203</t>
+  </si>
+  <si>
+    <t>0029582270</t>
+  </si>
+  <si>
+    <t>0020553090</t>
+  </si>
+  <si>
+    <t>0029636419</t>
+  </si>
+  <si>
+    <t>0044495880</t>
+  </si>
+  <si>
+    <t>0053046037</t>
+  </si>
+  <si>
+    <t>0002375168</t>
+  </si>
+  <si>
+    <t>0048236138</t>
+  </si>
+  <si>
+    <t>0055560390</t>
+  </si>
+  <si>
+    <t>0031014557</t>
+  </si>
+  <si>
+    <t>0008867291</t>
+  </si>
+  <si>
+    <t>0056723595</t>
+  </si>
+  <si>
+    <t>0048591167</t>
+  </si>
+  <si>
+    <t>0025611039</t>
+  </si>
+  <si>
+    <t>0030781759</t>
+  </si>
+  <si>
+    <t>0055258325</t>
+  </si>
+  <si>
+    <t>0026876907</t>
+  </si>
+  <si>
+    <t>0003702758</t>
+  </si>
+  <si>
+    <t>0003709175</t>
+  </si>
+  <si>
+    <t>0040135952</t>
+  </si>
+  <si>
+    <t>0031719933</t>
+  </si>
+  <si>
+    <t>0043092723</t>
+  </si>
+  <si>
+    <t>0050121976</t>
+  </si>
+  <si>
+    <t>0049774877</t>
+  </si>
+  <si>
+    <t>0025336496</t>
+  </si>
+  <si>
+    <t>0056840818</t>
+  </si>
+  <si>
+    <t>0021528749</t>
+  </si>
+  <si>
+    <t>0031627761</t>
+  </si>
+  <si>
+    <t>0006811892</t>
+  </si>
+  <si>
+    <t>0007283490</t>
+  </si>
+  <si>
+    <t>0045482774</t>
+  </si>
+  <si>
+    <t>0028146981</t>
+  </si>
+  <si>
+    <t>0018931664</t>
+  </si>
+  <si>
+    <t>0042092657</t>
+  </si>
+  <si>
+    <t>0041959401</t>
+  </si>
+  <si>
+    <t>0003551172</t>
+  </si>
+  <si>
+    <t>0056716831</t>
+  </si>
+  <si>
+    <t>0023679604</t>
+  </si>
+  <si>
+    <t>0008538999</t>
+  </si>
+  <si>
+    <t>0052614996</t>
+  </si>
+  <si>
+    <t>0052835860</t>
+  </si>
+  <si>
+    <t>0044959470</t>
+  </si>
+  <si>
+    <t>0050122115</t>
+  </si>
+  <si>
+    <t>0053028667</t>
+  </si>
+  <si>
+    <t>0005284970</t>
+  </si>
+  <si>
     <t>0018072190</t>
   </si>
   <si>
-    <t>0020120509</t>
-  </si>
-  <si>
-    <t>Cod de Reg</t>
-  </si>
-  <si>
-    <t>Nome</t>
+    <t>0021523577</t>
+  </si>
+  <si>
+    <t>0045285103</t>
+  </si>
+  <si>
+    <t>0052033802</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,17 +449,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,13 +491,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,63 +782,1198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>20041242</v>
+      <c r="A2" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B2" s="1">
         <v>100</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="B3" s="1">
         <v>101</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
+      <c r="A4" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="B4" s="1">
         <v>102</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1">
+        <v>103</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="1">
+        <v>104</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="1">
+        <v>105</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1">
+        <v>106</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="1">
+        <v>107</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1">
+        <v>108</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1">
+        <v>109</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="1">
+        <v>110</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="1">
+        <v>111</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="1">
+        <v>112</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="1">
+        <v>113</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="1">
+        <v>114</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="1">
+        <v>115</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="1">
+        <v>116</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="1">
+        <v>117</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="1">
+        <v>118</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="1">
+        <v>119</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="1">
+        <v>120</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="1">
+        <v>121</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="1">
+        <v>122</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="1">
+        <v>123</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="1">
+        <v>124</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="1">
+        <v>125</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="1">
+        <v>126</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="1">
+        <v>127</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="1">
+        <v>128</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="1">
+        <v>129</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="1">
+        <v>130</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="1">
+        <v>131</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="1">
+        <v>132</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="1">
+        <v>133</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="1">
+        <v>134</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="1">
+        <v>135</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="1">
+        <v>136</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="1">
+        <v>137</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="1">
+        <v>138</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="1">
+        <v>139</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="1">
+        <v>140</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="1">
+        <v>141</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="1">
+        <v>142</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="1">
+        <v>143</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="1">
+        <v>144</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="1">
+        <v>145</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="1">
+        <v>146</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="1">
+        <v>147</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="1">
+        <v>148</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="1">
+        <v>149</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" s="1">
+        <v>150</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53" s="1">
+        <v>151</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="1">
+        <v>152</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55" s="1">
+        <v>153</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="1">
+        <v>154</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="1">
+        <v>155</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="1">
+        <v>156</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="1">
+        <v>157</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="1">
+        <v>158</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" s="1">
+        <v>159</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" s="1">
+        <v>160</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="1">
+        <v>161</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="1">
+        <v>162</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B65" s="1">
+        <v>163</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="1">
+        <v>164</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="1">
+        <v>165</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="1">
+        <v>166</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="1">
+        <v>167</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="1">
+        <v>168</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" s="1">
+        <v>169</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="1">
+        <v>170</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="1">
+        <v>171</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="1">
+        <v>172</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" s="1">
+        <v>173</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" s="1">
+        <v>174</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" s="1">
+        <v>175</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="1">
+        <v>176</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="1">
+        <v>177</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="1">
+        <v>178</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="1">
+        <v>179</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="1">
+        <v>180</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="1">
+        <v>181</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1">
+        <v>182</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="1">
+        <v>183</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="1">
+        <v>184</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B87" s="1">
+        <v>185</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" s="1">
+        <v>186</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" s="1">
+        <v>187</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" s="1">
+        <v>188</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="1">
+        <v>189</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="1">
+        <v>190</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="1">
+        <v>191</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" s="1">
+        <v>192</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="1">
+        <v>193</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96" s="1">
+        <v>194</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97"/>
+      <c r="B97"/>
+      <c r="C97"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98"/>
+      <c r="B98"/>
+      <c r="C98"/>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99"/>
+      <c r="B99"/>
+      <c r="C99"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100"/>
+      <c r="B100"/>
+      <c r="C100"/>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101"/>
+      <c r="B101"/>
+      <c r="C101"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102"/>
+      <c r="B102"/>
+      <c r="C102"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103"/>
+      <c r="B103"/>
+      <c r="C103"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104"/>
+      <c r="B104"/>
+      <c r="C104"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105"/>
+      <c r="B105"/>
+      <c r="C105"/>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106"/>
+      <c r="B106"/>
+      <c r="C106"/>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107"/>
+      <c r="B107"/>
+      <c r="C107"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108"/>
+      <c r="B108"/>
+      <c r="C108"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109"/>
+      <c r="B109"/>
+      <c r="C109"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110"/>
+      <c r="B110"/>
+      <c r="C110"/>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111"/>
+      <c r="B111"/>
+      <c r="C111"/>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112"/>
+      <c r="B112"/>
+      <c r="C112"/>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113"/>
+      <c r="B113"/>
+      <c r="C113"/>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114"/>
+      <c r="B114"/>
+      <c r="C114"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115"/>
+      <c r="B115"/>
+      <c r="C115"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116"/>
+      <c r="B116"/>
+      <c r="C116"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117"/>
+      <c r="B117"/>
+      <c r="C117"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118"/>
+      <c r="B118"/>
+      <c r="C118"/>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119"/>
+      <c r="B119"/>
+      <c r="C119"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120"/>
+      <c r="B120"/>
+      <c r="C120"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/base/ucs.sub.xlsx
+++ b/base/ucs.sub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliasgk\Documents\Python Projects\RelatorioCelesc\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA2E240-AEC1-4AE8-9FD3-27FDA4BE58D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9739767B-5BC9-4417-971F-5E87857ADC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="645" windowWidth="17310" windowHeight="10275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -487,21 +487,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -785,1192 +801,1192 @@
   <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A85" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>100</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>101</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>102</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>103</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>104</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>105</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>106</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>107</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>108</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>109</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>110</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>111</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>112</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>113</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>114</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>115</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>116</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>117</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>118</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="2">
         <v>119</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="2">
         <v>120</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>121</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="2">
         <v>122</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="2">
         <v>123</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="2">
         <v>124</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="2">
         <v>125</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="2">
         <v>126</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="2">
         <v>127</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="2">
         <v>128</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="2">
         <v>129</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="2">
         <v>130</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="2">
         <v>131</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="2">
         <v>132</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="2">
         <v>133</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="2">
         <v>134</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="2">
         <v>135</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="2">
         <v>136</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="2">
         <v>137</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="2">
         <v>138</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="2">
         <v>139</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="2">
         <v>140</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="2">
         <v>141</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="2">
         <v>142</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="2">
         <v>143</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>144</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="2">
         <v>145</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="2">
         <v>146</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="2">
         <v>147</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="2">
         <v>148</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="2">
         <v>149</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="2">
         <v>150</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="2">
         <v>151</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>152</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="2">
         <v>153</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="2">
         <v>154</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="2">
         <v>155</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="2">
         <v>156</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="2">
         <v>157</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="2">
         <v>158</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="2">
         <v>159</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <v>160</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="2">
         <v>161</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="2">
         <v>162</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="2">
         <v>163</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="2">
         <v>164</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="2">
         <v>165</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="2">
         <v>166</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="2">
         <v>167</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="2">
         <v>168</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="2">
         <v>169</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="2">
         <v>170</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="2">
         <v>171</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="2">
         <v>172</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="2">
         <v>173</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="2">
         <v>174</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="2">
         <v>175</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="2">
         <v>176</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="2">
         <v>177</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="2">
         <v>178</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="2">
         <v>179</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="2">
         <v>180</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="2">
         <v>181</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="2">
         <v>182</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="2">
         <v>183</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="2">
         <v>184</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="2">
         <v>185</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="2">
         <v>186</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="2">
         <v>187</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="2">
         <v>188</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="2">
         <v>189</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="2">
         <v>190</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="2">
         <v>191</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="2">
         <v>192</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="2">
         <v>193</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="2">
         <v>194</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97"/>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98"/>
-      <c r="B98"/>
-      <c r="C98"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100"/>
-      <c r="B100"/>
-      <c r="C100"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101"/>
-      <c r="B101"/>
-      <c r="C101"/>
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102"/>
-      <c r="B102"/>
-      <c r="C102"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103"/>
-      <c r="B103"/>
-      <c r="C103"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104"/>
-      <c r="B104"/>
-      <c r="C104"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105"/>
-      <c r="B105"/>
-      <c r="C105"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106"/>
-      <c r="B106"/>
-      <c r="C106"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107"/>
-      <c r="B107"/>
-      <c r="C107"/>
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108"/>
-      <c r="B108"/>
-      <c r="C108"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109"/>
-      <c r="B109"/>
-      <c r="C109"/>
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110"/>
-      <c r="B110"/>
-      <c r="C110"/>
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111"/>
-      <c r="B111"/>
-      <c r="C111"/>
+      <c r="A111" s="5"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112"/>
-      <c r="B112"/>
-      <c r="C112"/>
+      <c r="A112" s="5"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113"/>
-      <c r="B113"/>
-      <c r="C113"/>
+      <c r="A113" s="5"/>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114"/>
-      <c r="B114"/>
-      <c r="C114"/>
+      <c r="A114" s="5"/>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115"/>
-      <c r="B115"/>
-      <c r="C115"/>
+      <c r="A115" s="5"/>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116"/>
-      <c r="B116"/>
-      <c r="C116"/>
+      <c r="A116" s="5"/>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117"/>
-      <c r="B117"/>
-      <c r="C117"/>
+      <c r="A117" s="5"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118"/>
-      <c r="B118"/>
-      <c r="C118"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119"/>
-      <c r="B119"/>
-      <c r="C119"/>
+      <c r="A119" s="5"/>
+      <c r="B119" s="5"/>
+      <c r="C119" s="5"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120"/>
-      <c r="B120"/>
-      <c r="C120"/>
+      <c r="A120" s="5"/>
+      <c r="B120" s="5"/>
+      <c r="C120" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
